--- a/ResourceRights/Data/rights_to_resources_data_set.xlsx
+++ b/ResourceRights/Data/rights_to_resources_data_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Temp\Documents\Duke\S20\DataAnalytics\Environmental_Data_Analytics_2020\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Temp\Documents\Duke\S20\DataAnalytics\Environmental_Data_Analytics_2020\ResourceRights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C60A619-C17C-4B84-B3DB-274AD1239244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A819D7-5878-40E5-AD5A-E6423E3CB236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" activeTab="3"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="2" r:id="rId1"/>
@@ -26,20 +26,12 @@
     <definedName name="Wildlife_Rights4" localSheetId="4">Wildlife!$A$1:$X$50</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Wildlife_Rights4" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Wildlife_Rights4" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="437" sourceFile="M:\Working\IGP_LandRights\Africa_natural_resources\Wildlife_Rights4.txt">
       <textFields count="27">
         <textField type="skip"/>
@@ -573,7 +565,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,7 +620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +669,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -691,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -722,6 +726,8 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1082,7 +1088,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wildlife_Rights4" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Wildlife_Rights4" connectionId="1" xr16:uid="{00000000-0016-0000-0400-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1405,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1474,10 +1480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1486,138 +1494,171 @@
     <col min="3" max="3" width="9.1171875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="12"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="12"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="12" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="12" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1630,11 +1671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
@@ -3703,10 +3744,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5776,7 +5817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7850,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9923,7 +9964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
